--- a/results/mistral_evaluation_stg1.xlsx
+++ b/results/mistral_evaluation_stg1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.729559092708688</v>
+        <v>0.7293305658834319</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7356032226612614</v>
+        <v>0.7352638952099215</v>
       </c>
       <c r="D5" t="n">
-        <v>0.759351606248158</v>
+        <v>0.7591025342943502</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7358049432197729</v>
+        <v>0.7356666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/results/mistral_evaluation_stg1.xlsx
+++ b/results/mistral_evaluation_stg1.xlsx
@@ -482,7 +482,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ToT Prompt</t>
+          <t>Prompt ToT</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -501,7 +501,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ToT Graph</t>
+          <t>Graph ToT</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -520,7 +520,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Optimization</t>
+          <t>Optimized</t>
         </is>
       </c>
       <c r="B5" t="n">
